--- a/data/trans_dic/IP16A08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,32 +864,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,58</t>
+          <t>0,0; 25,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,58</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,55</t>
+          <t>0,0; 44,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,59</t>
+          <t>0,0; 32,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 23,79</t>
+          <t>2,89; 24,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 25,75</t>
+          <t>2,5; 24,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 18,03</t>
+          <t>3,02; 18,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 18,78</t>
+          <t>2,93; 18,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,24</t>
+          <t>0,0; 16,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,33</t>
+          <t>0,0; 20,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 27,29</t>
+          <t>13,67; 28,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 18,84</t>
+          <t>7,83; 19,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 25,09</t>
+          <t>11,48; 25,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,54; 17,62</t>
+          <t>6,47; 17,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,68; 26,9</t>
+          <t>12,1; 27,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 20,55</t>
+          <t>8,51; 20,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 23,41</t>
+          <t>10,09; 23,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 16,23</t>
+          <t>6,05; 16,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 25,0</t>
+          <t>14,76; 24,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 17,94</t>
+          <t>9,59; 17,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 21,59</t>
+          <t>11,81; 21,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,7</t>
+          <t>7,36; 15,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 24,16</t>
+          <t>5,93; 26,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 27,45</t>
+          <t>7,42; 29,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 21,93</t>
+          <t>4,13; 21,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 17,56</t>
+          <t>2,98; 17,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 23,88</t>
+          <t>2,84; 23,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 19,01</t>
+          <t>3,64; 19,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 31,32</t>
+          <t>7,27; 30,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 21,94</t>
+          <t>4,2; 23,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 19,77</t>
+          <t>5,1; 18,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 20,58</t>
+          <t>6,98; 19,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 22,04</t>
+          <t>6,78; 21,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 16,82</t>
+          <t>5,2; 16,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 21,37</t>
+          <t>11,5; 21,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,89</t>
+          <t>8,77; 17,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,5</t>
+          <t>10,38; 20,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,69</t>
+          <t>6,63; 15,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 21,79</t>
+          <t>10,52; 22,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 16,47</t>
+          <t>8,37; 17,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,09</t>
+          <t>8,66; 20,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,81</t>
+          <t>6,29; 14,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,72</t>
+          <t>12,48; 19,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,56</t>
+          <t>9,37; 15,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 18,53</t>
+          <t>10,8; 18,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,3</t>
+          <t>7,38; 13,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A08-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,91; 24,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 24,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 8,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 42,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,25; 18,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 19,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,13</t>
+          <t>12,38; 26,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>8,52; 21,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,38</t>
+          <t>9,37; 22,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,03</t>
+          <t>3,4; 13,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 24,36</t>
+          <t>13,91; 27,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 24,66</t>
+          <t>7,68; 18,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>11,33; 25,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>6,51; 17,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 18,91</t>
+          <t>14,65; 24,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 18,91</t>
+          <t>9,55; 17,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,39</t>
+          <t>11,94; 21,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,96</t>
+          <t>6,43; 14,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 28,14</t>
+          <t>2,83; 23,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 19,55</t>
+          <t>3,58; 19,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 25,02</t>
+          <t>6,92; 30,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 17,82</t>
+          <t>4,85; 22,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 27,12</t>
+          <t>6,05; 25,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 20,86</t>
+          <t>7,6; 26,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 23,61</t>
+          <t>2,41; 21,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 16,67</t>
+          <t>3,1; 17,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 24,57</t>
+          <t>5,41; 19,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 17,67</t>
+          <t>7,14; 19,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 21,35</t>
+          <t>6,63; 21,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,03</t>
+          <t>4,99; 16,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,33%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 26,2</t>
+          <t>10,94; 22,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 29,59</t>
+          <t>8,09; 17,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 21,73</t>
+          <t>9,42; 19,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 17,19</t>
+          <t>4,34; 12,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 23,74</t>
+          <t>11,91; 22,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 19,72</t>
+          <t>8,66; 17,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 30,99</t>
+          <t>10,39; 21,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 23,26</t>
+          <t>6,57; 15,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 18,97</t>
+          <t>12,82; 20,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 19,97</t>
+          <t>9,27; 16,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 21,87</t>
+          <t>11,03; 19,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 16,14</t>
+          <t>6,45; 12,44</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,69%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>15,45%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,83%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>15,89%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12,39%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>14,32%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>10,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>11,5; 21,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,77; 17,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10,38; 20,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 15,08</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,52; 22,09</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>8,37; 17,0</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,66; 20,29</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 14,67</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>12,48; 19,79</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>9,37; 15,66</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>10,8; 18,05</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>7,38; 13,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
